--- a/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>CVAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,146 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>300</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
       </c>
       <c r="H8" s="3">
+        <v>300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>400</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>700</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
       </c>
       <c r="M8" s="3">
+        <v>700</v>
+      </c>
+      <c r="N8" s="3">
+        <v>300</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -803,14 +816,14 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
@@ -829,55 +842,67 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>400</v>
       </c>
       <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>400</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>700</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>700</v>
+      </c>
+      <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1062,11 +1107,11 @@
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,93 +1161,105 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>500</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
       </c>
       <c r="N17" s="3">
+        <v>500</v>
+      </c>
+      <c r="O17" s="3">
+        <v>700</v>
+      </c>
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,46 +1341,52 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1341,43 +1420,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1386,22 +1471,28 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,31 +1591,37 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1527,45 +1630,51 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1574,22 +1683,28 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,31 +1962,37 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -1856,22 +2001,28 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,31 +2068,37 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -1950,74 +2107,86 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>700</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
-      </c>
-      <c r="I41" s="3">
-        <v>900</v>
-      </c>
-      <c r="J41" s="3">
-        <v>900</v>
       </c>
       <c r="K41" s="3">
         <v>900</v>
       </c>
       <c r="L41" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M41" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N41" s="3">
         <v>600</v>
       </c>
       <c r="O41" s="3">
+        <v>500</v>
+      </c>
+      <c r="P41" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,46 +2327,52 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>10</v>
@@ -2195,34 +2380,40 @@
       <c r="Q43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -2231,10 +2422,10 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>200</v>
+      </c>
+      <c r="S44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,55 +2486,67 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>800</v>
       </c>
       <c r="G46" s="3">
         <v>900</v>
       </c>
       <c r="H46" s="3">
+        <v>800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>900</v>
+      </c>
+      <c r="J46" s="3">
         <v>700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1000</v>
       </c>
       <c r="K46" s="3">
         <v>1000</v>
       </c>
       <c r="L46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2392,10 +2607,10 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2430,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2456,18 +2677,18 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,31 +2910,37 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1100</v>
       </c>
       <c r="K54" s="3">
         <v>1100</v>
@@ -2698,22 +2949,28 @@
         <v>1100</v>
       </c>
       <c r="M54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,16 +3020,16 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -2783,22 +3044,28 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,102 +3111,120 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1100</v>
       </c>
       <c r="L59" s="3">
         <v>1200</v>
       </c>
       <c r="M59" s="3">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="N59" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="O59" s="3">
         <v>1700</v>
       </c>
       <c r="P59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1500</v>
       </c>
       <c r="L60" s="3">
         <v>1500</v>
       </c>
       <c r="M60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,19 +3270,25 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>10</v>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>10</v>
@@ -3011,11 +3302,11 @@
       <c r="J62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1500</v>
       </c>
       <c r="L66" s="3">
         <v>1500</v>
       </c>
       <c r="M66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,16 +3768,22 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-24100</v>
+        <v>-24700</v>
       </c>
       <c r="E72" s="3">
-        <v>-24100</v>
+        <v>-24600</v>
       </c>
       <c r="F72" s="3">
         <v>-24100</v>
@@ -3445,37 +3792,43 @@
         <v>-24100</v>
       </c>
       <c r="H72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-23600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-23400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-23200</v>
       </c>
       <c r="L72" s="3">
         <v>-23300</v>
       </c>
       <c r="M72" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-23100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-23500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-23400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,16 +3980,22 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="E76" s="3">
-        <v>-800</v>
+        <v>-1100</v>
       </c>
       <c r="F76" s="3">
         <v>-800</v>
@@ -3636,34 +4007,40 @@
         <v>-800</v>
       </c>
       <c r="I76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
       </c>
       <c r="M76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O76" s="3">
         <v>-300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1200</v>
       </c>
       <c r="P76" s="3">
         <v>-900</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,83 +4086,95 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -3794,22 +4183,28 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,28 +4614,30 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
@@ -4207,23 +4648,29 @@
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>CVAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,167 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
       </c>
       <c r="J8" s="3">
+        <v>300</v>
+      </c>
+      <c r="K8" s="3">
+        <v>400</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
-      </c>
-      <c r="M8" s="3">
-        <v>700</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
       </c>
       <c r="O8" s="3">
+        <v>700</v>
+      </c>
+      <c r="P8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
@@ -822,14 +836,14 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
@@ -848,61 +862,73 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>400</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
+        <v>400</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>700</v>
       </c>
       <c r="N10" s="3">
         <v>300</v>
       </c>
       <c r="O10" s="3">
+        <v>700</v>
+      </c>
+      <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1042,70 +1082,76 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -1113,11 +1159,11 @@
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1204,10 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,105 +1215,117 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>700</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>700</v>
+      </c>
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
+        <v>700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,61 +1400,73 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1426,49 +1506,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1477,22 +1563,28 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,37 +1695,43 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1636,51 +1740,57 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1689,22 +1799,28 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,37 +2108,43 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -2007,22 +2153,28 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,37 +2226,43 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -2113,80 +2271,92 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>800</v>
+      </c>
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
-      </c>
-      <c r="K41" s="3">
-        <v>900</v>
-      </c>
-      <c r="L41" s="3">
-        <v>900</v>
       </c>
       <c r="M41" s="3">
         <v>900</v>
       </c>
       <c r="N41" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="O41" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="P41" s="3">
         <v>600</v>
       </c>
       <c r="Q41" s="3">
+        <v>500</v>
+      </c>
+      <c r="R41" s="3">
+        <v>600</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,52 +2513,58 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>10</v>
@@ -2386,40 +2572,46 @@
       <c r="S43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
@@ -2428,10 +2620,10 @@
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
@@ -2439,8 +2631,14 @@
       <c r="S44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>200</v>
+      </c>
+      <c r="U44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,61 +2690,73 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>900</v>
+      </c>
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>800</v>
       </c>
       <c r="I46" s="3">
         <v>900</v>
       </c>
       <c r="J46" s="3">
+        <v>800</v>
+      </c>
+      <c r="K46" s="3">
+        <v>900</v>
+      </c>
+      <c r="L46" s="3">
         <v>700</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1000</v>
       </c>
       <c r="M46" s="3">
         <v>1000</v>
       </c>
       <c r="N46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2613,10 +2829,10 @@
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2651,8 +2867,14 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2683,18 +2905,18 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="P49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,37 +3162,43 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1100</v>
       </c>
       <c r="M54" s="3">
         <v>1100</v>
@@ -2955,22 +3207,28 @@
         <v>1100</v>
       </c>
       <c r="O54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,31 +3271,33 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3050,22 +3312,28 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,114 +3385,132 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1100</v>
       </c>
       <c r="N59" s="3">
         <v>1200</v>
       </c>
       <c r="O59" s="3">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="P59" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="Q59" s="3">
         <v>1700</v>
       </c>
       <c r="R59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1500</v>
       </c>
       <c r="N60" s="3">
         <v>1500</v>
       </c>
       <c r="O60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,25 +3562,31 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
+      <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>10</v>
@@ -3308,11 +3600,11 @@
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1500</v>
       </c>
       <c r="N66" s="3">
         <v>1500</v>
       </c>
       <c r="O66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,22 +4116,28 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-24700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-24100</v>
       </c>
       <c r="H72" s="3">
         <v>-24100</v>
@@ -3798,37 +4146,43 @@
         <v>-24100</v>
       </c>
       <c r="J72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-23600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-23400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-23200</v>
       </c>
       <c r="N72" s="3">
         <v>-23300</v>
       </c>
       <c r="O72" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-23100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-23400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-23100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,22 +4352,28 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-800</v>
       </c>
       <c r="H76" s="3">
         <v>-800</v>
@@ -4013,34 +4385,40 @@
         <v>-800</v>
       </c>
       <c r="K76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M76" s="3">
         <v>-500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-400</v>
       </c>
       <c r="N76" s="3">
         <v>-400</v>
       </c>
       <c r="O76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1200</v>
       </c>
       <c r="R76" s="3">
         <v>-900</v>
       </c>
       <c r="S76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,95 +4470,107 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -4189,22 +4579,28 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,13 +5056,15 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
@@ -4630,20 +5072,20 @@
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
@@ -4654,23 +5096,29 @@
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="P94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,31 +5547,37 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5114,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>CVAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,158 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
       </c>
       <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
       </c>
       <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -823,12 +829,12 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
@@ -842,11 +848,11 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
@@ -868,67 +874,73 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="H10" s="3">
-        <v>400</v>
       </c>
       <c r="I10" s="3">
         <v>400</v>
       </c>
       <c r="J10" s="3">
+        <v>400</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1400</v>
-      </c>
-      <c r="S10" s="3">
-        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1107,8 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1097,38 +1116,41 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1153,8 +1175,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
@@ -1165,8 +1187,8 @@
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1221,111 +1247,117 @@
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,26 +1439,29 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
@@ -1433,63 +1469,66 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1512,38 +1551,41 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>10</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1551,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1569,22 +1611,25 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,26 +1749,29 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1728,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1746,40 +1797,43 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1787,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1805,22 +1859,25 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,26 +2183,29 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -2141,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2159,22 +2231,25 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,26 +2307,29 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -2259,13 +2337,13 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2277,86 +2355,92 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,40 +2486,41 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
-      </c>
-      <c r="E41" s="3">
-        <v>800</v>
       </c>
       <c r="F41" s="3">
         <v>800</v>
       </c>
       <c r="G41" s="3">
+        <v>800</v>
+      </c>
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>600</v>
       </c>
       <c r="J41" s="3">
         <v>600</v>
       </c>
       <c r="K41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L41" s="3">
         <v>700</v>
       </c>
       <c r="M41" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="N41" s="3">
         <v>900</v>
@@ -2443,25 +2529,28 @@
         <v>900</v>
       </c>
       <c r="P41" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
-      </c>
-      <c r="S41" s="3">
-        <v>400</v>
       </c>
       <c r="T41" s="3">
         <v>400</v>
       </c>
       <c r="U41" s="3">
+        <v>400</v>
+      </c>
+      <c r="V41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,40 +2608,43 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2561,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>10</v>
@@ -2578,34 +2670,37 @@
       <c r="U43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2614,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
@@ -2626,7 +2721,7 @@
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
@@ -2637,8 +2732,11 @@
       <c r="U44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2705,31 +2806,31 @@
         <v>1000</v>
       </c>
       <c r="E46" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F46" s="3">
         <v>900</v>
       </c>
       <c r="G46" s="3">
+        <v>900</v>
+      </c>
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1000</v>
       </c>
       <c r="N46" s="3">
         <v>1000</v>
@@ -2738,25 +2839,28 @@
         <v>1000</v>
       </c>
       <c r="P46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q46" s="3">
         <v>900</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>800</v>
       </c>
       <c r="R46" s="3">
         <v>800</v>
       </c>
       <c r="S46" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T46" s="3">
         <v>600</v>
       </c>
       <c r="U46" s="3">
+        <v>600</v>
+      </c>
+      <c r="V46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,13 +2918,16 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
@@ -2835,7 +2942,7 @@
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2873,8 +2980,11 @@
       <c r="U48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2911,14 +3021,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>10</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,40 +3290,43 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1300</v>
       </c>
       <c r="F54" s="3">
         <v>1300</v>
       </c>
       <c r="G54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>900</v>
       </c>
       <c r="K54" s="3">
         <v>900</v>
       </c>
       <c r="L54" s="3">
+        <v>900</v>
+      </c>
+      <c r="M54" s="3">
         <v>800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1100</v>
       </c>
       <c r="N54" s="3">
         <v>1100</v>
@@ -3213,22 +3338,25 @@
         <v>1100</v>
       </c>
       <c r="Q54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R54" s="3">
         <v>900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1000</v>
-      </c>
-      <c r="S54" s="3">
-        <v>700</v>
       </c>
       <c r="T54" s="3">
         <v>700</v>
       </c>
       <c r="U54" s="3">
+        <v>700</v>
+      </c>
+      <c r="V54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,19 +3402,20 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3294,13 +3424,13 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -3318,13 +3448,13 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
@@ -3332,8 +3462,11 @@
       <c r="U57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,52 +3524,55 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1500</v>
       </c>
       <c r="K59" s="3">
         <v>1500</v>
       </c>
       <c r="L59" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M59" s="3">
         <v>1300</v>
       </c>
       <c r="N59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1700</v>
       </c>
       <c r="R59" s="3">
         <v>1700</v>
@@ -3445,48 +3581,51 @@
         <v>1700</v>
       </c>
       <c r="T59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1700</v>
       </c>
       <c r="K60" s="3">
         <v>1700</v>
       </c>
       <c r="L60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M60" s="3">
         <v>1600</v>
       </c>
       <c r="N60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="O60" s="3">
         <v>1500</v>
@@ -3495,33 +3634,36 @@
         <v>1500</v>
       </c>
       <c r="Q60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R60" s="3">
         <v>1200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1800</v>
       </c>
       <c r="S60" s="3">
         <v>1800</v>
       </c>
       <c r="T60" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="U60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3568,16 +3710,19 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -3588,8 +3733,8 @@
       <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
+      <c r="I62" s="3">
+        <v>300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
@@ -3606,8 +3751,8 @@
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,43 +3958,46 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="E66" s="3">
         <v>1800</v>
       </c>
       <c r="F66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1700</v>
       </c>
       <c r="K66" s="3">
         <v>1700</v>
       </c>
       <c r="L66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M66" s="3">
         <v>1600</v>
       </c>
       <c r="N66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="O66" s="3">
         <v>1500</v>
@@ -3849,22 +4006,25 @@
         <v>1500</v>
       </c>
       <c r="Q66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R66" s="3">
         <v>1200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1800</v>
       </c>
       <c r="S66" s="3">
         <v>1800</v>
       </c>
       <c r="T66" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="U66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,25 +4292,28 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-24100</v>
       </c>
       <c r="I72" s="3">
         <v>-24100</v>
@@ -4152,37 +4325,40 @@
         <v>-24100</v>
       </c>
       <c r="L72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="M72" s="3">
         <v>-23600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-23100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,25 +4540,28 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-800</v>
       </c>
       <c r="I76" s="3">
         <v>-800</v>
@@ -4391,10 +4576,10 @@
         <v>-800</v>
       </c>
       <c r="M76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N76" s="3">
         <v>-500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-400</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
@@ -4403,22 +4588,25 @@
         <v>-400</v>
       </c>
       <c r="Q76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,90 +4664,96 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -4567,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -4585,22 +4779,25 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,16 +5277,17 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
+      <c r="E91" s="3">
+        <v>-100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
@@ -5078,8 +5298,8 @@
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5087,8 +5307,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
@@ -5102,23 +5322,26 @@
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5247,16 +5476,16 @@
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>10</v>
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5264,23 +5493,23 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>10</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5288,14 +5517,17 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,16 +5795,19 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>10</v>
@@ -5579,8 +5824,8 @@
       <c r="J100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5612,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>CVAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,61 +766,64 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
       </c>
       <c r="K8" s="3">
+        <v>400</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>300</v>
       </c>
       <c r="P8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,12 +839,12 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
@@ -851,11 +858,11 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,61 +896,64 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I10" s="3">
-        <v>400</v>
       </c>
       <c r="J10" s="3">
         <v>400</v>
       </c>
       <c r="K10" s="3">
+        <v>400</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1400</v>
-      </c>
-      <c r="T10" s="3">
-        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,13 +976,14 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1178,8 +1201,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>10</v>
@@ -1190,8 +1213,8 @@
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1250,52 +1277,55 @@
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
       </c>
       <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,29 +1476,32 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
@@ -1472,48 +1509,51 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>10</v>
@@ -1530,8 +1570,8 @@
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1554,41 +1594,44 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>10</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1596,13 +1639,13 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1614,22 +1657,25 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,29 +1801,32 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1782,13 +1834,13 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1800,43 +1852,46 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1844,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1862,22 +1917,25 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,29 +2256,32 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -2216,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -2234,22 +2307,25 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,29 +2386,32 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -2340,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2358,89 +2437,95 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,43 +2573,44 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
-      </c>
-      <c r="F41" s="3">
-        <v>800</v>
       </c>
       <c r="G41" s="3">
         <v>800</v>
       </c>
       <c r="H41" s="3">
+        <v>800</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
-      </c>
-      <c r="J41" s="3">
-        <v>600</v>
       </c>
       <c r="K41" s="3">
         <v>600</v>
       </c>
       <c r="L41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M41" s="3">
         <v>700</v>
       </c>
       <c r="N41" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="O41" s="3">
         <v>900</v>
@@ -2532,25 +2619,28 @@
         <v>900</v>
       </c>
       <c r="Q41" s="3">
+        <v>900</v>
+      </c>
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
-      </c>
-      <c r="T41" s="3">
-        <v>400</v>
       </c>
       <c r="U41" s="3">
         <v>400</v>
       </c>
       <c r="V41" s="3">
+        <v>400</v>
+      </c>
+      <c r="W41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,43 +2701,46 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2656,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>10</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2682,28 +2778,28 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2712,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -2724,7 +2820,7 @@
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>200</v>
@@ -2735,31 +2831,34 @@
       <c r="V44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2809,31 +2911,31 @@
         <v>1000</v>
       </c>
       <c r="F46" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G46" s="3">
         <v>900</v>
       </c>
       <c r="H46" s="3">
+        <v>900</v>
+      </c>
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1000</v>
       </c>
       <c r="O46" s="3">
         <v>1000</v>
@@ -2842,25 +2944,28 @@
         <v>1000</v>
       </c>
       <c r="Q46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R46" s="3">
         <v>900</v>
-      </c>
-      <c r="R46" s="3">
-        <v>800</v>
       </c>
       <c r="S46" s="3">
         <v>800</v>
       </c>
       <c r="T46" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="U46" s="3">
         <v>600</v>
       </c>
       <c r="V46" s="3">
+        <v>600</v>
+      </c>
+      <c r="W46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,16 +3026,19 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
@@ -2945,7 +3053,7 @@
         <v>400</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3024,14 +3135,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>10</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3302,34 +3428,34 @@
         <v>1500</v>
       </c>
       <c r="E54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1300</v>
       </c>
       <c r="G54" s="3">
         <v>1300</v>
       </c>
       <c r="H54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>900</v>
       </c>
       <c r="L54" s="3">
         <v>900</v>
       </c>
       <c r="M54" s="3">
+        <v>900</v>
+      </c>
+      <c r="N54" s="3">
         <v>800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1100</v>
       </c>
       <c r="O54" s="3">
         <v>1100</v>
@@ -3341,22 +3467,25 @@
         <v>1100</v>
       </c>
       <c r="R54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S54" s="3">
         <v>900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1000</v>
-      </c>
-      <c r="T54" s="3">
-        <v>700</v>
       </c>
       <c r="U54" s="3">
         <v>700</v>
       </c>
       <c r="V54" s="3">
+        <v>700</v>
+      </c>
+      <c r="W54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,22 +3533,23 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -3427,13 +3558,13 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -3451,13 +3582,13 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
-      </c>
-      <c r="T57" s="3">
-        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,55 +3661,58 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1500</v>
       </c>
       <c r="L59" s="3">
         <v>1500</v>
       </c>
       <c r="M59" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="N59" s="3">
         <v>1300</v>
       </c>
       <c r="O59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1700</v>
       </c>
       <c r="S59" s="3">
         <v>1700</v>
@@ -3584,51 +3721,54 @@
         <v>1700</v>
       </c>
       <c r="U59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1700</v>
       </c>
       <c r="L60" s="3">
         <v>1700</v>
       </c>
       <c r="M60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N60" s="3">
         <v>1600</v>
       </c>
       <c r="O60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="P60" s="3">
         <v>1500</v>
@@ -3637,37 +3777,40 @@
         <v>1500</v>
       </c>
       <c r="R60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S60" s="3">
         <v>1200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1800</v>
       </c>
       <c r="T60" s="3">
         <v>1800</v>
       </c>
       <c r="U60" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="V60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3725,7 +3871,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -3736,8 +3882,8 @@
       <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
+      <c r="J62" s="3">
+        <v>300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
@@ -3754,8 +3900,8 @@
       <c r="O62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,46 +4116,49 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1800</v>
       </c>
       <c r="F66" s="3">
         <v>1800</v>
       </c>
       <c r="G66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1700</v>
       </c>
       <c r="L66" s="3">
         <v>1700</v>
       </c>
       <c r="M66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N66" s="3">
         <v>1600</v>
       </c>
       <c r="O66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="P66" s="3">
         <v>1500</v>
@@ -4009,22 +4167,25 @@
         <v>1500</v>
       </c>
       <c r="R66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S66" s="3">
         <v>1200</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1800</v>
       </c>
       <c r="T66" s="3">
         <v>1800</v>
       </c>
       <c r="U66" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="V66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,28 +4466,31 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-24100</v>
       </c>
       <c r="J72" s="3">
         <v>-24100</v>
@@ -4328,37 +4502,40 @@
         <v>-24100</v>
       </c>
       <c r="M72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="N72" s="3">
         <v>-23600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-23400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-23100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,28 +4726,31 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-800</v>
       </c>
       <c r="J76" s="3">
         <v>-800</v>
@@ -4579,10 +4765,10 @@
         <v>-800</v>
       </c>
       <c r="N76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O76" s="3">
         <v>-500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-400</v>
@@ -4591,22 +4777,25 @@
         <v>-400</v>
       </c>
       <c r="R76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,96 +4856,102 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -4764,13 +4959,13 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -4782,22 +4977,25 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,19 +5498,20 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
+      <c r="F91" s="3">
+        <v>-100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>10</v>
@@ -5301,8 +5522,8 @@
       <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5310,8 +5531,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
@@ -5325,23 +5546,26 @@
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,13 +5691,16 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -5479,16 +5709,16 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>10</v>
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5496,23 +5726,23 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>10</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5520,14 +5750,17 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,19 +6041,22 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>10</v>
@@ -5827,8 +6073,8 @@
       <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>CVAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,179 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>400</v>
       </c>
       <c r="N8" s="3">
+        <v>300</v>
+      </c>
+      <c r="O8" s="3">
+        <v>400</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>700</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
       </c>
       <c r="S8" s="3">
+        <v>700</v>
+      </c>
+      <c r="T8" s="3">
+        <v>300</v>
+      </c>
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -842,14 +856,14 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>10</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -861,14 +875,14 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
@@ -887,73 +901,85 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
-      </c>
-      <c r="K10" s="3">
-        <v>400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>400</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
+        <v>400</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
-      </c>
-      <c r="P10" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>700</v>
       </c>
       <c r="R10" s="3">
         <v>300</v>
       </c>
       <c r="S10" s="3">
+        <v>700</v>
+      </c>
+      <c r="T10" s="3">
+        <v>300</v>
+      </c>
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -988,8 +1016,8 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,31 +1141,37 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1142,38 +1182,44 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,11 +1250,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>10</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>10</v>
@@ -1216,11 +1262,11 @@
       <c r="P15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,16 +1311,18 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>300</v>
+        <v>200</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1280,117 +1334,129 @@
         <v>300</v>
       </c>
       <c r="I17" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>700</v>
       </c>
       <c r="T17" s="3">
+        <v>500</v>
+      </c>
+      <c r="U17" s="3">
+        <v>700</v>
+      </c>
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,16 +1480,18 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1479,73 +1547,85 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1555,11 +1635,11 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>10</v>
@@ -1573,11 +1653,11 @@
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1597,61 +1677,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1660,22 +1746,28 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,49 +1902,55 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -1855,63 +1959,69 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -1920,22 +2030,28 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,16 +2328,22 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2259,49 +2399,55 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -2310,22 +2456,28 @@
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,49 +2541,55 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2440,92 +2598,104 @@
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2746,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
-      </c>
-      <c r="O41" s="3">
-        <v>900</v>
-      </c>
-      <c r="P41" s="3">
-        <v>900</v>
       </c>
       <c r="Q41" s="3">
         <v>900</v>
       </c>
       <c r="R41" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="S41" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T41" s="3">
         <v>600</v>
       </c>
       <c r="U41" s="3">
+        <v>500</v>
+      </c>
+      <c r="V41" s="3">
+        <v>600</v>
+      </c>
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,117 +2884,129 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
@@ -2823,10 +3015,10 @@
         <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V44" s="3">
         <v>200</v>
@@ -2834,19 +3026,25 @@
       <c r="W44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>10</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>10</v>
@@ -2860,11 +3058,11 @@
       <c r="J45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2899,73 +3097,85 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="E46" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="F46" s="3">
         <v>1000</v>
       </c>
       <c r="G46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>800</v>
       </c>
       <c r="M46" s="3">
         <v>900</v>
       </c>
       <c r="N46" s="3">
+        <v>800</v>
+      </c>
+      <c r="O46" s="3">
+        <v>900</v>
+      </c>
+      <c r="P46" s="3">
         <v>700</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1000</v>
       </c>
       <c r="Q46" s="3">
         <v>1000</v>
       </c>
       <c r="R46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,22 +3239,28 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -3056,10 +3272,10 @@
         <v>400</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -3094,8 +3310,14 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3138,17 +3360,17 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,49 +3665,55 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1100</v>
       </c>
       <c r="Q54" s="3">
         <v>1100</v>
@@ -3470,22 +3722,28 @@
         <v>1100</v>
       </c>
       <c r="S54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U54" s="3">
         <v>900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3794,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,34 +3805,34 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -3585,22 +3847,28 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,159 +3932,177 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1100</v>
       </c>
       <c r="R59" s="3">
         <v>1200</v>
       </c>
       <c r="S59" s="3">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="T59" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="U59" s="3">
         <v>1700</v>
       </c>
       <c r="V59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X59" s="3">
         <v>1500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1500</v>
       </c>
       <c r="R60" s="3">
         <v>1500</v>
       </c>
       <c r="S60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>400</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
+        <v>300</v>
+      </c>
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4145,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3874,10 +4166,10 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -3885,11 +4177,11 @@
       <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
+      <c r="K62" s="3">
+        <v>300</v>
+      </c>
+      <c r="L62" s="3">
+        <v>300</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>10</v>
@@ -3903,11 +4195,11 @@
       <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1500</v>
       </c>
       <c r="R66" s="3">
         <v>1500</v>
       </c>
       <c r="S66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,34 +4811,40 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-24200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-24000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-24700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-24600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-24100</v>
       </c>
       <c r="L72" s="3">
         <v>-24100</v>
@@ -4505,37 +4853,43 @@
         <v>-24100</v>
       </c>
       <c r="N72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="P72" s="3">
         <v>-23600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-23400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-23200</v>
       </c>
       <c r="R72" s="3">
         <v>-23300</v>
       </c>
       <c r="S72" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="T72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="U72" s="3">
         <v>-23100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-23500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-23400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-23100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,34 +5095,40 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-800</v>
       </c>
       <c r="L76" s="3">
         <v>-800</v>
@@ -4768,34 +5140,40 @@
         <v>-800</v>
       </c>
       <c r="O76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-400</v>
       </c>
       <c r="R76" s="3">
         <v>-400</v>
       </c>
       <c r="S76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U76" s="3">
         <v>-300</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-1200</v>
       </c>
       <c r="V76" s="3">
         <v>-900</v>
       </c>
       <c r="W76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,119 +5237,131 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -4980,22 +5370,28 @@
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,46 +5939,48 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>10</v>
@@ -5549,23 +5991,29 @@
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>10</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>10</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,26 +6530,32 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>700</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>10</v>
       </c>
@@ -6076,11 +6568,11 @@
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6109,8 +6601,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>CVAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,185 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>400</v>
       </c>
       <c r="N8" s="3">
+        <v>400</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
       </c>
       <c r="S8" s="3">
+        <v>300</v>
+      </c>
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1400</v>
-      </c>
-      <c r="W8" s="3">
-        <v>100</v>
       </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
       <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -862,11 +868,11 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -881,11 +887,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
@@ -907,79 +913,85 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="3">
-        <v>400</v>
+      <c r="L10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M10" s="3">
         <v>400</v>
       </c>
       <c r="N10" s="3">
+        <v>400</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1400</v>
-      </c>
-      <c r="W10" s="3">
-        <v>100</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
       <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,22 +1017,23 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,17 +1163,20 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1192,8 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1188,23 +1207,23 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1212,14 +1231,17 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1256,8 +1278,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>10</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>10</v>
@@ -1268,8 +1290,8 @@
       <c r="R15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,19 +1338,20 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
@@ -1340,123 +1366,129 @@
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
       </c>
       <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
+      <c r="F18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,19 +1514,20 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1553,38 +1586,41 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
@@ -1592,40 +1628,43 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1641,8 +1680,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>10</v>
@@ -1659,8 +1698,8 @@
       <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1683,50 +1722,53 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>10</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1734,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1752,22 +1794,25 @@
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,38 +1956,41 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1947,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -1965,52 +2016,55 @@
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="F27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -2018,13 +2072,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -2036,22 +2090,25 @@
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,19 +2400,22 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2405,38 +2474,41 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="F33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2444,13 +2516,13 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
@@ -2462,22 +2534,25 @@
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,38 +2622,41 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="F35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2586,13 +2664,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
@@ -2604,98 +2682,104 @@
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,52 +2833,53 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
-      </c>
-      <c r="I41" s="3">
-        <v>800</v>
       </c>
       <c r="J41" s="3">
         <v>800</v>
       </c>
       <c r="K41" s="3">
+        <v>800</v>
+      </c>
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
-      </c>
-      <c r="M41" s="3">
-        <v>600</v>
       </c>
       <c r="N41" s="3">
         <v>600</v>
       </c>
       <c r="O41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P41" s="3">
         <v>700</v>
       </c>
       <c r="Q41" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="R41" s="3">
         <v>900</v>
@@ -2802,25 +2888,28 @@
         <v>900</v>
       </c>
       <c r="T41" s="3">
+        <v>900</v>
+      </c>
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
-      </c>
-      <c r="W41" s="3">
-        <v>400</v>
       </c>
       <c r="X41" s="3">
         <v>400</v>
       </c>
       <c r="Y41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,52 +2979,55 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2944,14 +3036,14 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2973,34 +3068,34 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3009,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
@@ -3021,7 +3116,7 @@
         <v>100</v>
       </c>
       <c r="V44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W44" s="3">
         <v>200</v>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3043,11 +3141,11 @@
       <c r="E45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>10</v>
+      <c r="F45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>10</v>
@@ -3064,8 +3162,8 @@
       <c r="L45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3103,19 +3201,22 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1000</v>
       </c>
       <c r="G46" s="3">
         <v>1000</v>
@@ -3124,31 +3225,31 @@
         <v>1000</v>
       </c>
       <c r="I46" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J46" s="3">
         <v>900</v>
       </c>
       <c r="K46" s="3">
+        <v>900</v>
+      </c>
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1000</v>
       </c>
       <c r="R46" s="3">
         <v>1000</v>
@@ -3157,48 +3258,51 @@
         <v>1000</v>
       </c>
       <c r="T46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U46" s="3">
         <v>900</v>
-      </c>
-      <c r="U46" s="3">
-        <v>800</v>
       </c>
       <c r="V46" s="3">
         <v>800</v>
       </c>
       <c r="W46" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="X46" s="3">
         <v>600</v>
       </c>
       <c r="Y46" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3245,25 +3349,28 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
       </c>
       <c r="G48" s="3">
+        <v>400</v>
+      </c>
+      <c r="H48" s="3">
         <v>500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
@@ -3278,7 +3385,7 @@
         <v>400</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -3316,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3366,14 +3476,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>10</v>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,52 +3793,55 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1500</v>
       </c>
       <c r="G54" s="3">
         <v>1500</v>
       </c>
       <c r="H54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I54" s="3">
         <v>1400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1300</v>
       </c>
       <c r="J54" s="3">
         <v>1300</v>
       </c>
       <c r="K54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>900</v>
       </c>
       <c r="O54" s="3">
         <v>900</v>
       </c>
       <c r="P54" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q54" s="3">
         <v>800</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1100</v>
       </c>
       <c r="R54" s="3">
         <v>1100</v>
@@ -3728,22 +3853,25 @@
         <v>1100</v>
       </c>
       <c r="U54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V54" s="3">
         <v>900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1000</v>
-      </c>
-      <c r="W54" s="3">
-        <v>700</v>
       </c>
       <c r="X54" s="3">
         <v>700</v>
       </c>
       <c r="Y54" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3811,16 +3941,16 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3829,13 +3959,13 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -3853,13 +3983,13 @@
         <v>300</v>
       </c>
       <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
-      </c>
-      <c r="W57" s="3">
-        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
@@ -3867,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,64 +4071,67 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1500</v>
       </c>
       <c r="O59" s="3">
         <v>1500</v>
       </c>
       <c r="P59" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="Q59" s="3">
         <v>1300</v>
       </c>
       <c r="R59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1700</v>
       </c>
       <c r="V59" s="3">
         <v>1700</v>
@@ -4004,60 +4140,63 @@
         <v>1700</v>
       </c>
       <c r="X59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1700</v>
       </c>
       <c r="O60" s="3">
         <v>1700</v>
       </c>
       <c r="P60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="Q60" s="3">
         <v>1600</v>
       </c>
       <c r="R60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="S60" s="3">
         <v>1500</v>
@@ -4066,46 +4205,49 @@
         <v>1500</v>
       </c>
       <c r="U60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V60" s="3">
         <v>1200</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1800</v>
       </c>
       <c r="W60" s="3">
         <v>1800</v>
       </c>
       <c r="X60" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="Y60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
       </c>
       <c r="I61" s="3">
+        <v>300</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4172,7 +4317,7 @@
         <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -4183,8 +4328,8 @@
       <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
+      <c r="M62" s="3">
+        <v>300</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>10</v>
@@ -4201,8 +4346,8 @@
       <c r="R62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,8 +4589,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4444,46 +4601,46 @@
         <v>2300</v>
       </c>
       <c r="E66" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F66" s="3">
         <v>2200</v>
       </c>
       <c r="G66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H66" s="3">
         <v>2100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1800</v>
       </c>
       <c r="I66" s="3">
         <v>1800</v>
       </c>
       <c r="J66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1700</v>
       </c>
       <c r="O66" s="3">
         <v>1700</v>
       </c>
       <c r="P66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="Q66" s="3">
         <v>1600</v>
       </c>
       <c r="R66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="S66" s="3">
         <v>1500</v>
@@ -4492,22 +4649,25 @@
         <v>1500</v>
       </c>
       <c r="U66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V66" s="3">
         <v>1200</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1800</v>
       </c>
       <c r="W66" s="3">
         <v>1800</v>
       </c>
       <c r="X66" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="Y66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,37 +4987,40 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-24000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-24700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-24100</v>
       </c>
       <c r="M72" s="3">
         <v>-24100</v>
@@ -4859,37 +5032,40 @@
         <v>-24100</v>
       </c>
       <c r="P72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-23600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-23300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-23100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-23500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-23400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-23100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,37 +5283,40 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>400</v>
+      </c>
+      <c r="E76" s="3">
         <v>700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-800</v>
       </c>
       <c r="M76" s="3">
         <v>-800</v>
@@ -5146,10 +5331,10 @@
         <v>-800</v>
       </c>
       <c r="Q76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R76" s="3">
         <v>-500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-400</v>
       </c>
       <c r="S76" s="3">
         <v>-400</v>
@@ -5158,22 +5343,25 @@
         <v>-400</v>
       </c>
       <c r="U76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,114 +5431,120 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="F81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -5358,13 +5552,13 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
@@ -5376,22 +5570,25 @@
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,28 +6160,29 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="I91" s="3">
+        <v>-100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
@@ -5973,8 +6193,8 @@
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5982,8 +6202,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>10</v>
@@ -5997,23 +6217,26 @@
       <c r="T91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,22 +6380,25 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -6178,16 +6407,16 @@
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6195,23 +6424,23 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>10</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6219,14 +6448,17 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,29 +6778,32 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>10</v>
       </c>
@@ -6574,8 +6819,8 @@
       <c r="N100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6607,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>500</v>
+        <v>-800</v>
       </c>
       <c r="E102" s="3">
         <v>500</v>
       </c>
       <c r="F102" s="3">
+        <v>500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>CVAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>400</v>
       </c>
       <c r="O8" s="3">
+        <v>400</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>300</v>
       </c>
       <c r="S8" s="3">
         <v>300</v>
       </c>
       <c r="T8" s="3">
+        <v>300</v>
+      </c>
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1400</v>
-      </c>
-      <c r="X8" s="3">
-        <v>100</v>
       </c>
       <c r="Y8" s="3">
         <v>100</v>
       </c>
       <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -871,11 +878,11 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -890,11 +897,11 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
@@ -916,82 +923,88 @@
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="3">
-        <v>400</v>
+      <c r="M10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N10" s="3">
         <v>400</v>
       </c>
       <c r="O10" s="3">
+        <v>400</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1400</v>
-      </c>
-      <c r="X10" s="3">
-        <v>100</v>
       </c>
       <c r="Y10" s="3">
         <v>100</v>
       </c>
       <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,25 +1031,26 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1175,11 +1195,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,8 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1210,23 +1230,23 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1234,14 +1254,17 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1281,8 +1304,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>10</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>10</v>
@@ -1293,8 +1316,8 @@
       <c r="S15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,22 +1365,23 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
@@ -1369,126 +1396,132 @@
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
       </c>
       <c r="T17" s="3">
+        <v>400</v>
+      </c>
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
+      <c r="G18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,22 +1548,23 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1589,41 +1623,44 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
@@ -1631,40 +1668,43 @@
         <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1683,8 +1723,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>10</v>
@@ -1701,8 +1741,8 @@
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1725,53 +1765,56 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>10</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1779,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1797,22 +1840,25 @@
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,41 +2008,44 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -2001,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -2019,55 +2071,58 @@
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -2075,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -2093,22 +2148,25 @@
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,22 +2470,25 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2477,41 +2547,44 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2519,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2537,22 +2610,25 @@
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,41 +2701,44 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2667,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2685,101 +2764,107 @@
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,55 +2920,56 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>800</v>
       </c>
       <c r="K41" s="3">
         <v>800</v>
       </c>
       <c r="L41" s="3">
+        <v>800</v>
+      </c>
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>600</v>
       </c>
       <c r="O41" s="3">
         <v>600</v>
       </c>
       <c r="P41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q41" s="3">
         <v>700</v>
       </c>
       <c r="R41" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="S41" s="3">
         <v>900</v>
@@ -2891,25 +2978,28 @@
         <v>900</v>
       </c>
       <c r="U41" s="3">
+        <v>900</v>
+      </c>
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>600</v>
-      </c>
-      <c r="X41" s="3">
-        <v>400</v>
       </c>
       <c r="Y41" s="3">
         <v>400</v>
       </c>
       <c r="Z41" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2991,46 +3084,46 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3039,14 +3132,14 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>10</v>
       </c>
@@ -3056,13 +3149,16 @@
       <c r="Z43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -3071,34 +3167,34 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3107,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T44" s="3">
         <v>100</v>
@@ -3119,7 +3215,7 @@
         <v>100</v>
       </c>
       <c r="W44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X44" s="3">
         <v>200</v>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3144,11 +3243,11 @@
       <c r="F45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>10</v>
+      <c r="G45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>10</v>
@@ -3165,8 +3264,8 @@
       <c r="M45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3204,22 +3303,25 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1000</v>
       </c>
       <c r="H46" s="3">
         <v>1000</v>
@@ -3228,31 +3330,31 @@
         <v>1000</v>
       </c>
       <c r="J46" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K46" s="3">
         <v>900</v>
       </c>
       <c r="L46" s="3">
+        <v>900</v>
+      </c>
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1000</v>
       </c>
       <c r="S46" s="3">
         <v>1000</v>
@@ -3261,34 +3363,37 @@
         <v>1000</v>
       </c>
       <c r="U46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V46" s="3">
         <v>900</v>
-      </c>
-      <c r="V46" s="3">
-        <v>800</v>
       </c>
       <c r="W46" s="3">
         <v>800</v>
       </c>
       <c r="X46" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Y46" s="3">
         <v>600</v>
       </c>
       <c r="Z46" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E47" s="3">
         <v>1200</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
       </c>
@@ -3304,8 +3409,8 @@
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3361,19 +3469,19 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
       </c>
       <c r="H48" s="3">
+        <v>400</v>
+      </c>
+      <c r="I48" s="3">
         <v>500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -3388,7 +3496,7 @@
         <v>400</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3479,14 +3590,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>10</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,55 +3919,58 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1500</v>
       </c>
       <c r="H54" s="3">
         <v>1500</v>
       </c>
       <c r="I54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J54" s="3">
         <v>1400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1300</v>
       </c>
       <c r="K54" s="3">
         <v>1300</v>
       </c>
       <c r="L54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
-      </c>
-      <c r="O54" s="3">
-        <v>900</v>
       </c>
       <c r="P54" s="3">
         <v>900</v>
       </c>
       <c r="Q54" s="3">
+        <v>900</v>
+      </c>
+      <c r="R54" s="3">
         <v>800</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1100</v>
       </c>
       <c r="S54" s="3">
         <v>1100</v>
@@ -3856,22 +3982,25 @@
         <v>1100</v>
       </c>
       <c r="V54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W54" s="3">
         <v>900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1000</v>
-      </c>
-      <c r="X54" s="3">
-        <v>700</v>
       </c>
       <c r="Y54" s="3">
         <v>700</v>
       </c>
       <c r="Z54" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,13 +4056,14 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -3944,16 +4075,16 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3962,13 +4093,13 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -3986,13 +4117,13 @@
         <v>300</v>
       </c>
       <c r="V57" s="3">
+        <v>300</v>
+      </c>
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>100</v>
-      </c>
-      <c r="X57" s="3">
-        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,67 +4208,70 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1500</v>
       </c>
       <c r="P59" s="3">
         <v>1500</v>
       </c>
       <c r="Q59" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="R59" s="3">
         <v>1300</v>
       </c>
       <c r="S59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1700</v>
       </c>
       <c r="W59" s="3">
         <v>1700</v>
@@ -4143,63 +4280,66 @@
         <v>1700</v>
       </c>
       <c r="Y59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1700</v>
       </c>
       <c r="P60" s="3">
         <v>1700</v>
       </c>
       <c r="Q60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="R60" s="3">
         <v>1600</v>
       </c>
       <c r="S60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T60" s="3">
         <v>1500</v>
@@ -4208,49 +4348,52 @@
         <v>1500</v>
       </c>
       <c r="V60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W60" s="3">
         <v>1200</v>
-      </c>
-      <c r="W60" s="3">
-        <v>1800</v>
       </c>
       <c r="X60" s="3">
         <v>1800</v>
       </c>
       <c r="Y60" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="Z60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>300</v>
       </c>
       <c r="J61" s="3">
+        <v>300</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4296,13 +4439,16 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -4320,7 +4466,7 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
@@ -4331,8 +4477,8 @@
       <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>10</v>
+      <c r="N62" s="3">
+        <v>300</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>10</v>
@@ -4349,8 +4495,8 @@
       <c r="S62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,58 +4747,61 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="E66" s="3">
         <v>2300</v>
       </c>
       <c r="F66" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G66" s="3">
         <v>2200</v>
       </c>
       <c r="H66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I66" s="3">
         <v>2100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1800</v>
       </c>
       <c r="J66" s="3">
         <v>1800</v>
       </c>
       <c r="K66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1700</v>
       </c>
       <c r="P66" s="3">
         <v>1700</v>
       </c>
       <c r="Q66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="R66" s="3">
         <v>1600</v>
       </c>
       <c r="S66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T66" s="3">
         <v>1500</v>
@@ -4652,22 +4810,25 @@
         <v>1500</v>
       </c>
       <c r="V66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W66" s="3">
         <v>1200</v>
-      </c>
-      <c r="W66" s="3">
-        <v>1800</v>
       </c>
       <c r="X66" s="3">
         <v>1800</v>
       </c>
       <c r="Y66" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="Z66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,40 +5161,43 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-24000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-24600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-24100</v>
       </c>
       <c r="N72" s="3">
         <v>-24100</v>
@@ -5035,37 +5209,40 @@
         <v>-24100</v>
       </c>
       <c r="Q72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="R72" s="3">
         <v>-23600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-23200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-23300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-23100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-23500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-23400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-23100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,40 +5469,43 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>700</v>
+      </c>
+      <c r="E76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-800</v>
       </c>
       <c r="N76" s="3">
         <v>-800</v>
@@ -5334,10 +5520,10 @@
         <v>-800</v>
       </c>
       <c r="R76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S76" s="3">
         <v>-500</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-400</v>
       </c>
       <c r="T76" s="3">
         <v>-400</v>
@@ -5346,22 +5532,25 @@
         <v>-400</v>
       </c>
       <c r="V76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,120 +5623,126 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -5555,13 +5750,13 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -5573,22 +5768,25 @@
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>300</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,31 +6381,32 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+      <c r="J91" s="3">
+        <v>-100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -6196,8 +6417,8 @@
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6205,8 +6426,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>10</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>10</v>
@@ -6220,23 +6441,26 @@
       <c r="U91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,25 +6610,28 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -6410,16 +6640,16 @@
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>10</v>
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6427,23 +6657,23 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>10</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6451,14 +6681,17 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6790,23 +7036,23 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
@@ -6822,8 +7068,8 @@
       <c r="O100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
-      </c>
-      <c r="E102" s="3">
-        <v>500</v>
       </c>
       <c r="F102" s="3">
         <v>500</v>
       </c>
       <c r="G102" s="3">
+        <v>500</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>CVAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
+      <c r="D8" s="3">
+        <v>1000</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>400</v>
       </c>
       <c r="P8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>300</v>
       </c>
       <c r="U8" s="3">
+        <v>300</v>
+      </c>
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1400</v>
       </c>
-      <c r="Y8" s="3">
-        <v>100</v>
-      </c>
       <c r="Z8" s="3">
         <v>100</v>
       </c>
       <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -881,11 +888,11 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -900,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -926,85 +933,91 @@
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
+      <c r="D10" s="3">
+        <v>1000</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="3">
-        <v>400</v>
+      <c r="N10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
       </c>
       <c r="P10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1400</v>
       </c>
-      <c r="Y10" s="3">
-        <v>100</v>
-      </c>
       <c r="Z10" s="3">
         <v>100</v>
       </c>
       <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,17 +1057,17 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,23 +1203,26 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1238,8 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1233,23 +1253,23 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1307,8 +1330,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>10</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>10</v>
@@ -1319,8 +1342,8 @@
       <c r="T15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,25 +1392,26 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
+      <c r="H17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
@@ -1399,129 +1426,135 @@
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
       </c>
       <c r="U17" s="3">
+        <v>400</v>
+      </c>
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>200</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
+      <c r="H18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,25 +1582,26 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1626,44 +1660,47 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
@@ -1671,40 +1708,43 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1726,8 +1766,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1744,8 +1784,8 @@
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1768,56 +1808,59 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>10</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1825,13 +1868,13 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
@@ -1843,22 +1886,25 @@
         <v>-100</v>
       </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,44 +2060,47 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -2056,13 +2108,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
@@ -2074,58 +2126,61 @@
         <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -2133,13 +2188,13 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
@@ -2151,22 +2206,25 @@
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,25 +2540,28 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2550,44 +2620,47 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2595,13 +2668,13 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
@@ -2613,22 +2686,25 @@
         <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,44 +2780,47 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2749,13 +2828,13 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
@@ -2767,104 +2846,110 @@
         <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,58 +3007,59 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
-      </c>
-      <c r="K41" s="3">
-        <v>800</v>
       </c>
       <c r="L41" s="3">
         <v>800</v>
       </c>
       <c r="M41" s="3">
+        <v>800</v>
+      </c>
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>600</v>
       </c>
       <c r="P41" s="3">
         <v>600</v>
       </c>
       <c r="Q41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R41" s="3">
         <v>700</v>
       </c>
       <c r="S41" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T41" s="3">
         <v>900</v>
@@ -2981,25 +3068,28 @@
         <v>900</v>
       </c>
       <c r="V41" s="3">
+        <v>900</v>
+      </c>
+      <c r="W41" s="3">
         <v>600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>600</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>400</v>
       </c>
       <c r="Z41" s="3">
         <v>400</v>
       </c>
       <c r="AA41" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3087,46 +3180,46 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -3135,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
-        <v>100</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>10</v>
+      <c r="X43" s="3">
+        <v>100</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>10</v>
@@ -3152,16 +3245,19 @@
       <c r="AA43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -3170,34 +3266,34 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -3206,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U44" s="3">
         <v>100</v>
@@ -3218,7 +3314,7 @@
         <v>100</v>
       </c>
       <c r="X44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y44" s="3">
         <v>200</v>
@@ -3229,13 +3325,16 @@
       <c r="AA44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>10</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>10</v>
@@ -3246,11 +3345,11 @@
       <c r="G45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>10</v>
+      <c r="H45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>10</v>
@@ -3267,8 +3366,8 @@
       <c r="N45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3306,25 +3405,28 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1000</v>
       </c>
       <c r="I46" s="3">
         <v>1000</v>
@@ -3333,31 +3435,31 @@
         <v>1000</v>
       </c>
       <c r="K46" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L46" s="3">
         <v>900</v>
       </c>
       <c r="M46" s="3">
+        <v>900</v>
+      </c>
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1000</v>
       </c>
       <c r="T46" s="3">
         <v>1000</v>
@@ -3366,37 +3468,40 @@
         <v>1000</v>
       </c>
       <c r="V46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W46" s="3">
         <v>900</v>
-      </c>
-      <c r="W46" s="3">
-        <v>800</v>
       </c>
       <c r="X46" s="3">
         <v>800</v>
       </c>
       <c r="Y46" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Z46" s="3">
         <v>600</v>
       </c>
       <c r="AA46" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E47" s="3">
         <v>1300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>10</v>
       </c>
@@ -3412,8 +3517,8 @@
       <c r="K47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3460,31 +3565,34 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
       </c>
       <c r="F48" s="3">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
         <v>700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
       </c>
       <c r="I48" s="3">
+        <v>400</v>
+      </c>
+      <c r="J48" s="3">
         <v>500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -3499,7 +3607,7 @@
         <v>400</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3593,14 +3704,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>10</v>
+      <c r="U49" s="3">
+        <v>0</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,58 +4045,61 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1500</v>
       </c>
       <c r="I54" s="3">
         <v>1500</v>
       </c>
       <c r="J54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1300</v>
       </c>
       <c r="L54" s="3">
         <v>1300</v>
       </c>
       <c r="M54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
-      </c>
-      <c r="P54" s="3">
-        <v>900</v>
       </c>
       <c r="Q54" s="3">
         <v>900</v>
       </c>
       <c r="R54" s="3">
+        <v>900</v>
+      </c>
+      <c r="S54" s="3">
         <v>800</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1100</v>
       </c>
       <c r="T54" s="3">
         <v>1100</v>
@@ -3985,22 +4111,25 @@
         <v>1100</v>
       </c>
       <c r="W54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X54" s="3">
         <v>900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>700</v>
       </c>
       <c r="Z54" s="3">
         <v>700</v>
       </c>
       <c r="AA54" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,7 +4197,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -4078,16 +4209,16 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -4096,13 +4227,13 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -4120,13 +4251,13 @@
         <v>300</v>
       </c>
       <c r="W57" s="3">
+        <v>300</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
-        <v>100</v>
-      </c>
       <c r="Y57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>200</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,70 +4345,73 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1500</v>
       </c>
       <c r="Q59" s="3">
         <v>1500</v>
       </c>
       <c r="R59" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="S59" s="3">
         <v>1300</v>
       </c>
       <c r="T59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
-      </c>
-      <c r="W59" s="3">
-        <v>1700</v>
       </c>
       <c r="X59" s="3">
         <v>1700</v>
@@ -4283,66 +4420,69 @@
         <v>1700</v>
       </c>
       <c r="Z59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1700</v>
       </c>
       <c r="Q60" s="3">
         <v>1700</v>
       </c>
       <c r="R60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="S60" s="3">
         <v>1600</v>
       </c>
       <c r="T60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="U60" s="3">
         <v>1500</v>
@@ -4351,22 +4491,25 @@
         <v>1500</v>
       </c>
       <c r="W60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X60" s="3">
         <v>1200</v>
-      </c>
-      <c r="X60" s="3">
-        <v>1800</v>
       </c>
       <c r="Y60" s="3">
         <v>1800</v>
       </c>
       <c r="Z60" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="AA60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4374,28 +4517,28 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
-      </c>
-      <c r="I61" s="3">
-        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>300</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,7 +4597,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -4469,7 +4615,7 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
@@ -4480,8 +4626,8 @@
       <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>10</v>
+      <c r="O62" s="3">
+        <v>300</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>10</v>
@@ -4498,8 +4644,8 @@
       <c r="T62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,61 +4905,64 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2300</v>
       </c>
       <c r="F66" s="3">
         <v>2300</v>
       </c>
       <c r="G66" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H66" s="3">
         <v>2200</v>
       </c>
       <c r="I66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J66" s="3">
         <v>2100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1800</v>
       </c>
       <c r="K66" s="3">
         <v>1800</v>
       </c>
       <c r="L66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1700</v>
       </c>
       <c r="Q66" s="3">
         <v>1700</v>
       </c>
       <c r="R66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="S66" s="3">
         <v>1600</v>
       </c>
       <c r="T66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="U66" s="3">
         <v>1500</v>
@@ -4813,22 +4971,25 @@
         <v>1500</v>
       </c>
       <c r="W66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X66" s="3">
         <v>1200</v>
-      </c>
-      <c r="X66" s="3">
-        <v>1800</v>
       </c>
       <c r="Y66" s="3">
         <v>1800</v>
       </c>
       <c r="Z66" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="AA66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,43 +5335,46 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-24100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-24700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-24600</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-24100</v>
       </c>
       <c r="O72" s="3">
         <v>-24100</v>
@@ -5212,37 +5386,40 @@
         <v>-24100</v>
       </c>
       <c r="R72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="S72" s="3">
         <v>-23600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-23300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-23200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-23300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-23100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-23500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-23400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-23100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,43 +5655,46 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-800</v>
       </c>
       <c r="O76" s="3">
         <v>-800</v>
@@ -5523,10 +5709,10 @@
         <v>-800</v>
       </c>
       <c r="S76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T76" s="3">
         <v>-500</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-400</v>
       </c>
       <c r="U76" s="3">
         <v>-400</v>
@@ -5535,22 +5721,25 @@
         <v>-400</v>
       </c>
       <c r="W76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,126 +5815,132 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -5753,13 +5948,13 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
@@ -5771,22 +5966,25 @@
         <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,76 +6502,79 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>300</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6391,25 +6612,25 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
+      <c r="K91" s="3">
+        <v>-100</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
@@ -6420,8 +6641,8 @@
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6429,8 +6650,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>10</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>10</v>
@@ -6444,23 +6665,26 @@
       <c r="V91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6622,19 +6852,19 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -6643,16 +6873,16 @@
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>10</v>
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6660,23 +6890,23 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>10</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6684,14 +6914,17 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7039,23 +7285,23 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
@@ -7071,8 +7317,8 @@
       <c r="P100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7190,72 +7442,75 @@
         <v>-300</v>
       </c>
       <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
-      </c>
-      <c r="F102" s="3">
-        <v>500</v>
       </c>
       <c r="G102" s="3">
         <v>500</v>
       </c>
       <c r="H102" s="3">
+        <v>500</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>CVAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,212 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
+      <c r="J8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>400</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T8" s="3">
+        <v>400</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
-      </c>
-      <c r="U8" s="3">
-        <v>300</v>
-      </c>
-      <c r="V8" s="3">
-        <v>700</v>
       </c>
       <c r="W8" s="3">
         <v>300</v>
       </c>
       <c r="X8" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z8" s="3">
         <v>400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1400</v>
       </c>
-      <c r="Z8" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>100</v>
-      </c>
       <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -865,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -891,14 +904,14 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>10</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -910,13 +923,13 @@
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
@@ -936,88 +949,100 @@
       <c r="AB9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
+      <c r="J10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
-      </c>
-      <c r="P10" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>300</v>
       </c>
       <c r="R10" s="3">
         <v>400</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T10" s="3">
+        <v>400</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
-      </c>
-      <c r="U10" s="3">
-        <v>300</v>
-      </c>
-      <c r="V10" s="3">
-        <v>700</v>
       </c>
       <c r="W10" s="3">
         <v>300</v>
       </c>
       <c r="X10" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z10" s="3">
         <v>400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1400</v>
       </c>
-      <c r="Z10" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>100</v>
-      </c>
       <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,22 +1071,24 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>10</v>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1072,8 +1099,8 @@
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,29 +1239,35 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1241,11 +1280,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1256,38 +1295,44 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1333,11 +1378,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>10</v>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>10</v>
@@ -1345,11 +1390,11 @@
       <c r="U15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,31 +1444,33 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
+      <c r="J17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
@@ -1429,132 +1482,144 @@
         <v>300</v>
       </c>
       <c r="N17" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
       </c>
       <c r="R17" s="3">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>700</v>
-      </c>
-      <c r="W17" s="3">
-        <v>500</v>
       </c>
       <c r="X17" s="3">
         <v>700</v>
       </c>
       <c r="Y17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,22 +1659,22 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="J20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1663,88 +1730,100 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>100</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1769,11 +1848,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>10</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>10</v>
@@ -1787,11 +1866,11 @@
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1811,76 +1890,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>300</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
+        <v>300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
@@ -1889,22 +1974,28 @@
         <v>-100</v>
       </c>
       <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,64 +2160,70 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
@@ -2129,78 +2232,84 @@
         <v>-100</v>
       </c>
       <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
@@ -2209,22 +2318,28 @@
         <v>-100</v>
       </c>
       <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,22 +2691,22 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>10</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="J32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2623,64 +2762,70 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
@@ -2689,22 +2834,28 @@
         <v>-100</v>
       </c>
       <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,64 +2934,70 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
@@ -2849,107 +3006,119 @@
         <v>-100</v>
       </c>
       <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
-      </c>
-      <c r="T41" s="3">
-        <v>900</v>
-      </c>
-      <c r="U41" s="3">
-        <v>900</v>
       </c>
       <c r="V41" s="3">
         <v>900</v>
       </c>
       <c r="W41" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="X41" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="Y41" s="3">
         <v>600</v>
       </c>
       <c r="Z41" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB41" s="3">
         <v>400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3183,64 +3368,64 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z43" s="3" t="s">
-        <v>10</v>
+      <c r="Z43" s="3">
+        <v>100</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>10</v>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3257,58 +3448,58 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W44" s="3">
         <v>100</v>
@@ -3317,10 +3508,10 @@
         <v>100</v>
       </c>
       <c r="Y44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA44" s="3">
         <v>200</v>
@@ -3328,19 +3519,25 @@
       <c r="AB44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>10</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>10</v>
@@ -3348,14 +3545,14 @@
       <c r="H45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>10</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>10</v>
@@ -3369,11 +3566,11 @@
       <c r="O45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3408,88 +3605,100 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1000</v>
       </c>
       <c r="K46" s="3">
         <v>1000</v>
       </c>
       <c r="L46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>800</v>
       </c>
       <c r="R46" s="3">
         <v>900</v>
       </c>
       <c r="S46" s="3">
+        <v>800</v>
+      </c>
+      <c r="T46" s="3">
+        <v>900</v>
+      </c>
+      <c r="U46" s="3">
         <v>700</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U46" s="3">
-        <v>1000</v>
       </c>
       <c r="V46" s="3">
         <v>1000</v>
       </c>
       <c r="W46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3497,17 +3706,17 @@
         <v>1100</v>
       </c>
       <c r="E47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G47" s="3">
         <v>1300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>10</v>
       </c>
@@ -3520,11 +3729,11 @@
       <c r="L47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3577,28 +3792,28 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3">
         <v>400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>700</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
       </c>
       <c r="I48" s="3">
+        <v>700</v>
+      </c>
+      <c r="J48" s="3">
         <v>400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
       </c>
       <c r="L48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
@@ -3610,10 +3825,10 @@
         <v>400</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3707,17 +3928,17 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,64 +4293,70 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1100</v>
       </c>
       <c r="V54" s="3">
         <v>1100</v>
@@ -4114,22 +4365,28 @@
         <v>1100</v>
       </c>
       <c r="X54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,22 +4447,24 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -4212,34 +4473,34 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
@@ -4254,22 +4515,28 @@
         <v>300</v>
       </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Z57" s="3">
         <v>200</v>
       </c>
       <c r="AA57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,168 +4615,186 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>1400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1700</v>
       </c>
       <c r="H59" s="3">
         <v>1500</v>
       </c>
       <c r="I59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1300</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1100</v>
       </c>
       <c r="W59" s="3">
         <v>1200</v>
       </c>
       <c r="X59" s="3">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="Y59" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="Z59" s="3">
         <v>1700</v>
       </c>
       <c r="AA59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AC59" s="3">
         <v>1500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1500</v>
       </c>
       <c r="W60" s="3">
         <v>1500</v>
       </c>
       <c r="X60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4520,7 +4805,7 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -4529,22 +4814,22 @@
         <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>300</v>
       </c>
       <c r="K61" s="3">
+        <v>400</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>100</v>
-      </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4600,10 +4891,10 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -4618,10 +4909,10 @@
         <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
@@ -4629,11 +4920,11 @@
       <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>10</v>
+      <c r="P62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>300</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>10</v>
@@ -4647,11 +4938,11 @@
       <c r="U62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>800</v>
+      </c>
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1500</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1500</v>
       </c>
       <c r="W66" s="3">
         <v>1500</v>
       </c>
       <c r="X66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,49 +5679,55 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-25200</v>
+        <v>-25600</v>
       </c>
       <c r="E72" s="3">
         <v>-25300</v>
       </c>
       <c r="F72" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-24700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-24300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-24600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-24200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-24100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-23900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-24000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-24700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-24600</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-24100</v>
       </c>
       <c r="Q72" s="3">
         <v>-24100</v>
@@ -5389,37 +5736,43 @@
         <v>-24100</v>
       </c>
       <c r="S72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="T72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="U72" s="3">
         <v>-23600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-23400</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-23200</v>
       </c>
       <c r="W72" s="3">
         <v>-23300</v>
       </c>
       <c r="X72" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-23100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-23500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-23400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-23100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,49 +6023,55 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1000</v>
       </c>
-      <c r="E76" s="3">
-        <v>700</v>
-      </c>
       <c r="F76" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G76" s="3">
         <v>700</v>
       </c>
       <c r="H76" s="3">
+        <v>400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>700</v>
+      </c>
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-800</v>
       </c>
       <c r="Q76" s="3">
         <v>-800</v>
@@ -5712,34 +6083,40 @@
         <v>-800</v>
       </c>
       <c r="T76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V76" s="3">
         <v>-500</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-400</v>
       </c>
       <c r="W76" s="3">
         <v>-400</v>
       </c>
       <c r="X76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-1200</v>
       </c>
       <c r="AA76" s="3">
         <v>-900</v>
       </c>
       <c r="AB76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,149 +6195,161 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
@@ -5969,22 +6358,28 @@
         <v>-100</v>
       </c>
       <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,16 +6408,18 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>300</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,61 +7042,63 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>10</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>10</v>
@@ -6668,23 +7109,29 @@
       <c r="W91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6855,76 +7314,82 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>10</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>10</v>
+      <c r="AA94" s="3">
+        <v>0</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7288,26 +7779,26 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>10</v>
       </c>
@@ -7320,11 +7811,11 @@
       <c r="Q100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -7353,8 +7844,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7930,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>CVAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,85 +796,88 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
+      <c r="K8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>400</v>
       </c>
       <c r="S8" s="3">
+        <v>400</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
         <v>300</v>
       </c>
       <c r="X8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y8" s="3">
         <v>700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1400</v>
       </c>
-      <c r="AB8" s="3">
-        <v>100</v>
-      </c>
       <c r="AC8" s="3">
         <v>100</v>
       </c>
       <c r="AD8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -878,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -910,11 +917,11 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -929,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -964,85 +974,88 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
+      <c r="K10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>400</v>
+      <c r="Q10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R10" s="3">
         <v>400</v>
       </c>
       <c r="S10" s="3">
+        <v>400</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1400</v>
       </c>
-      <c r="AB10" s="3">
-        <v>100</v>
-      </c>
       <c r="AC10" s="3">
         <v>100</v>
       </c>
       <c r="AD10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1084,8 +1098,8 @@
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1093,17 +1107,17 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1257,20 +1277,20 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,8 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1301,23 +1321,23 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-100</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -1325,14 +1345,17 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>10</v>
+      <c r="AC14" s="3">
+        <v>0</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1384,8 +1407,8 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>10</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>10</v>
@@ -1396,8 +1419,8 @@
       <c r="W15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1458,22 +1485,22 @@
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
+      <c r="K17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
@@ -1488,52 +1515,55 @@
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
-      </c>
-      <c r="V17" s="3">
-        <v>400</v>
       </c>
       <c r="W17" s="3">
         <v>400</v>
       </c>
       <c r="X17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,85 +1571,88 @@
         <v>-200</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
+      <c r="K18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1665,19 +1699,19 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1736,53 +1770,56 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>-200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
@@ -1790,40 +1827,43 @@
         <v>0</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1854,8 +1894,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>10</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>10</v>
@@ -1872,8 +1912,8 @@
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1896,65 +1936,68 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>10</v>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
+      <c r="AC22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1962,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
@@ -1980,22 +2023,25 @@
         <v>-100</v>
       </c>
       <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,53 +2215,56 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -2220,13 +2272,13 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
@@ -2238,67 +2290,70 @@
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -2306,13 +2361,13 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
@@ -2324,22 +2379,25 @@
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2697,19 +2767,19 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2768,53 +2838,56 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2822,13 +2895,13 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
@@ -2840,22 +2913,25 @@
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,53 +3016,56 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2994,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
@@ -3012,113 +3091,119 @@
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3190,58 +3277,58 @@
         <v>300</v>
       </c>
       <c r="E41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F41" s="3">
         <v>400</v>
       </c>
       <c r="G41" s="3">
+        <v>400</v>
+      </c>
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
-      </c>
-      <c r="N41" s="3">
-        <v>800</v>
       </c>
       <c r="O41" s="3">
         <v>800</v>
       </c>
       <c r="P41" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
-      </c>
-      <c r="R41" s="3">
-        <v>600</v>
       </c>
       <c r="S41" s="3">
         <v>600</v>
       </c>
       <c r="T41" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="U41" s="3">
         <v>700</v>
       </c>
       <c r="V41" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="W41" s="3">
         <v>900</v>
@@ -3250,25 +3337,28 @@
         <v>900</v>
       </c>
       <c r="Y41" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z41" s="3">
         <v>600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>600</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>400</v>
       </c>
       <c r="AC41" s="3">
         <v>400</v>
       </c>
       <c r="AD41" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3374,46 +3467,46 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3422,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Z43" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>10</v>
+      <c r="AA43" s="3">
+        <v>100</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>10</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3454,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -3466,34 +3562,34 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -3502,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X44" s="3">
         <v>100</v>
@@ -3514,7 +3610,7 @@
         <v>100</v>
       </c>
       <c r="AA44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB44" s="3">
         <v>200</v>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3539,8 +3638,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>10</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>10</v>
@@ -3551,11 +3650,11 @@
       <c r="J45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>10</v>
+      <c r="K45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>10</v>
@@ -3572,8 +3671,8 @@
       <c r="Q45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3623,22 +3725,22 @@
         <v>400</v>
       </c>
       <c r="F46" s="3">
+        <v>400</v>
+      </c>
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1000</v>
       </c>
       <c r="L46" s="3">
         <v>1000</v>
@@ -3647,31 +3749,31 @@
         <v>1000</v>
       </c>
       <c r="N46" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O46" s="3">
         <v>900</v>
       </c>
       <c r="P46" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
-      </c>
-      <c r="V46" s="3">
-        <v>1000</v>
       </c>
       <c r="W46" s="3">
         <v>1000</v>
@@ -3680,25 +3782,28 @@
         <v>1000</v>
       </c>
       <c r="Y46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z46" s="3">
         <v>900</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>800</v>
       </c>
       <c r="AA46" s="3">
         <v>800</v>
       </c>
       <c r="AB46" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AC46" s="3">
         <v>600</v>
       </c>
       <c r="AD46" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3712,14 +3817,14 @@
         <v>1100</v>
       </c>
       <c r="G47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H47" s="3">
         <v>1300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
@@ -3735,8 +3840,8 @@
       <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3783,13 +3888,16 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -3798,25 +3906,25 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
       </c>
       <c r="I48" s="3">
+        <v>400</v>
+      </c>
+      <c r="J48" s="3">
         <v>700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
       </c>
       <c r="L48" s="3">
+        <v>400</v>
+      </c>
+      <c r="M48" s="3">
         <v>500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
@@ -3831,7 +3939,7 @@
         <v>400</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3934,14 +4045,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>10</v>
+      <c r="X49" s="3">
+        <v>0</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
+      <c r="Z49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,67 +4422,70 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E54" s="3">
         <v>1700</v>
       </c>
       <c r="F54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G54" s="3">
         <v>1900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1500</v>
       </c>
       <c r="L54" s="3">
         <v>1500</v>
       </c>
       <c r="M54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N54" s="3">
         <v>1400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1300</v>
       </c>
       <c r="O54" s="3">
         <v>1300</v>
       </c>
       <c r="P54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1000</v>
-      </c>
-      <c r="S54" s="3">
-        <v>900</v>
       </c>
       <c r="T54" s="3">
         <v>900</v>
       </c>
       <c r="U54" s="3">
+        <v>900</v>
+      </c>
+      <c r="V54" s="3">
         <v>800</v>
-      </c>
-      <c r="V54" s="3">
-        <v>1100</v>
       </c>
       <c r="W54" s="3">
         <v>1100</v>
@@ -4371,22 +4497,25 @@
         <v>1100</v>
       </c>
       <c r="Z54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA54" s="3">
         <v>900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1000</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>700</v>
       </c>
       <c r="AC54" s="3">
         <v>700</v>
       </c>
       <c r="AD54" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,17 +4579,18 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
@@ -4467,7 +4598,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -4479,16 +4610,16 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -4497,13 +4628,13 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
@@ -4521,13 +4652,13 @@
         <v>300</v>
       </c>
       <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3">
-        <v>100</v>
-      </c>
       <c r="AB57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC57" s="3">
         <v>200</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,79 +4755,82 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1500</v>
       </c>
       <c r="T59" s="3">
         <v>1500</v>
       </c>
       <c r="U59" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="V59" s="3">
         <v>1300</v>
       </c>
       <c r="W59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X59" s="3">
         <v>1200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1200</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>1700</v>
       </c>
       <c r="AA59" s="3">
         <v>1700</v>
@@ -4702,75 +4839,78 @@
         <v>1700</v>
       </c>
       <c r="AC59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AD59" s="3">
         <v>1500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1700</v>
       </c>
       <c r="T60" s="3">
         <v>1700</v>
       </c>
       <c r="U60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="V60" s="3">
         <v>1600</v>
       </c>
       <c r="W60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="X60" s="3">
         <v>1500</v>
@@ -4779,22 +4919,25 @@
         <v>1500</v>
       </c>
       <c r="Z60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA60" s="3">
         <v>1200</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>1800</v>
       </c>
       <c r="AB60" s="3">
         <v>1800</v>
       </c>
       <c r="AC60" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="AD60" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4811,28 +4954,28 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
+        <v>200</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
-      </c>
-      <c r="L61" s="3">
-        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4897,7 +5043,7 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -4915,7 +5061,7 @@
         <v>200</v>
       </c>
       <c r="N62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
@@ -4926,8 +5072,8 @@
       <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>10</v>
+      <c r="R62" s="3">
+        <v>300</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>10</v>
@@ -4944,8 +5090,8 @@
       <c r="W62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,70 +5378,73 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>800</v>
       </c>
       <c r="F66" s="3">
         <v>800</v>
       </c>
       <c r="G66" s="3">
+        <v>800</v>
+      </c>
+      <c r="H66" s="3">
         <v>1800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2300</v>
       </c>
       <c r="I66" s="3">
         <v>2300</v>
       </c>
       <c r="J66" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K66" s="3">
         <v>2200</v>
       </c>
       <c r="L66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M66" s="3">
         <v>2100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1800</v>
       </c>
       <c r="N66" s="3">
         <v>1800</v>
       </c>
       <c r="O66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1700</v>
       </c>
       <c r="T66" s="3">
         <v>1700</v>
       </c>
       <c r="U66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="V66" s="3">
         <v>1600</v>
       </c>
       <c r="W66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="X66" s="3">
         <v>1500</v>
@@ -5295,22 +5453,25 @@
         <v>1500</v>
       </c>
       <c r="Z66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA66" s="3">
         <v>1200</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>1800</v>
       </c>
       <c r="AB66" s="3">
         <v>1800</v>
       </c>
       <c r="AC66" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="AD66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,52 +5856,55 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-25300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-24300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-24600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-24100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-24000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-24700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-24600</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-24100</v>
       </c>
       <c r="R72" s="3">
         <v>-24100</v>
@@ -5742,37 +5916,40 @@
         <v>-24100</v>
       </c>
       <c r="U72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="V72" s="3">
         <v>-23600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-23400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-23300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-23200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-23300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-23100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-23500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-23400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-23100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,52 +6212,55 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500</v>
+      </c>
+      <c r="E76" s="3">
         <v>700</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1000</v>
       </c>
       <c r="F76" s="3">
         <v>1000</v>
       </c>
       <c r="G76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-800</v>
       </c>
       <c r="R76" s="3">
         <v>-800</v>
@@ -6089,10 +6275,10 @@
         <v>-800</v>
       </c>
       <c r="V76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W76" s="3">
         <v>-500</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-400</v>
       </c>
       <c r="X76" s="3">
         <v>-400</v>
@@ -6101,22 +6287,25 @@
         <v>-400</v>
       </c>
       <c r="Z76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,144 +6390,150 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -6346,13 +6541,13 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
@@ -6364,22 +6559,25 @@
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,19 +6608,20 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>10</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6935,85 +7152,88 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
-        <v>100</v>
-      </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>300</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,16 +7264,17 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -7062,25 +7283,25 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
+      <c r="N91" s="3">
+        <v>-100</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>10</v>
@@ -7091,8 +7312,8 @@
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -7100,8 +7321,8 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>10</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>10</v>
@@ -7115,23 +7336,26 @@
       <c r="Y91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7320,19 +7550,19 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
@@ -7341,16 +7571,16 @@
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>10</v>
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -7358,23 +7588,23 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>10</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="Z94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
@@ -7382,14 +7612,17 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7785,23 +8031,23 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>10</v>
       </c>
@@ -7817,8 +8063,8 @@
       <c r="S100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7945,81 +8197,84 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-300</v>
       </c>
       <c r="G102" s="3">
         <v>-300</v>
       </c>
       <c r="H102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I102" s="3">
         <v>-800</v>
-      </c>
-      <c r="I102" s="3">
-        <v>500</v>
       </c>
       <c r="J102" s="3">
         <v>500</v>
       </c>
       <c r="K102" s="3">
+        <v>500</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CVAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>CVAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,236 +665,250 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AG7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
+      <c r="M8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>300</v>
       </c>
       <c r="U8" s="3">
         <v>400</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W8" s="3">
+        <v>400</v>
+      </c>
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
         <v>300</v>
-      </c>
-      <c r="X8" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>700</v>
       </c>
       <c r="Z8" s="3">
         <v>300</v>
       </c>
       <c r="AA8" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC8" s="3">
         <v>400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>1400</v>
       </c>
-      <c r="AC8" s="3">
-        <v>100</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>100</v>
-      </c>
       <c r="AE8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AG8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -920,14 +934,14 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>10</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
+      <c r="S9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -939,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
@@ -965,97 +979,109 @@
       <c r="AE9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
+      <c r="M10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="3">
         <v>400</v>
-      </c>
-      <c r="S10" s="3">
-        <v>400</v>
-      </c>
-      <c r="T10" s="3">
-        <v>300</v>
       </c>
       <c r="U10" s="3">
         <v>400</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W10" s="3">
+        <v>400</v>
+      </c>
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>200</v>
-      </c>
-      <c r="X10" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>700</v>
       </c>
       <c r="Z10" s="3">
         <v>300</v>
       </c>
       <c r="AA10" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC10" s="3">
         <v>400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>1400</v>
       </c>
-      <c r="AC10" s="3">
-        <v>100</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>100</v>
-      </c>
       <c r="AE10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AG10" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,31 +1113,33 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>10</v>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -1122,8 +1150,8 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -1176,8 +1204,14 @@
       <c r="AE12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,13 +1299,19 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1280,23 +1320,23 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1309,11 +1349,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1324,38 +1364,44 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-100</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1410,11 +1456,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>10</v>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>10</v>
@@ -1422,11 +1468,11 @@
       <c r="X15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1443,8 +1489,14 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1525,10 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1482,31 +1536,31 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
+      <c r="M17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
@@ -1518,141 +1572,153 @@
         <v>300</v>
       </c>
       <c r="Q17" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
       </c>
       <c r="U17" s="3">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
       </c>
       <c r="W17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>700</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>500</v>
       </c>
       <c r="AA17" s="3">
         <v>700</v>
       </c>
       <c r="AB17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD17" s="3">
         <v>800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AF17" s="3">
         <v>300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AG17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AF18" s="3">
         <v>-200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AG18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,16 +1750,18 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-100</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
@@ -1702,22 +1770,22 @@
         <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>10</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1773,97 +1841,109 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AF21" s="3">
         <v>-200</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AG21" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1897,11 +1977,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>10</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>10</v>
@@ -1915,11 +1995,11 @@
       <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1939,85 +2019,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>300</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-100</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
@@ -2026,22 +2112,28 @@
         <v>-100</v>
       </c>
       <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <v>-200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AG23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2221,14 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,73 +2316,79 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-100</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
@@ -2293,87 +2397,93 @@
         <v>-100</v>
       </c>
       <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AF26" s="3">
         <v>-200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AG26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
@@ -2382,22 +2492,28 @@
         <v>-100</v>
       </c>
       <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AF27" s="3">
         <v>-200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AG27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2601,14 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2696,14 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2791,14 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,16 +2886,22 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>100</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -2770,22 +2910,22 @@
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>10</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2841,73 +2981,79 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
@@ -2916,22 +3062,28 @@
         <v>-100</v>
       </c>
       <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AF33" s="3">
         <v>-200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AG33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,73 +3171,79 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
@@ -3094,116 +3252,128 @@
         <v>-100</v>
       </c>
       <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AF35" s="3">
         <v>-200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AG35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AG38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3405,10 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3440,105 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
-      </c>
-      <c r="W41" s="3">
-        <v>900</v>
-      </c>
-      <c r="X41" s="3">
-        <v>900</v>
       </c>
       <c r="Y41" s="3">
         <v>900</v>
       </c>
       <c r="Z41" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="AA41" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB41" s="3">
         <v>600</v>
       </c>
       <c r="AC41" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE41" s="3">
         <v>400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AF41" s="3">
         <v>400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AG41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,13 +3626,19 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -3470,64 +3656,64 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
       <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
-      <c r="AA43" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC43" s="3" t="s">
-        <v>10</v>
+      <c r="AC43" s="3">
+        <v>100</v>
       </c>
       <c r="AD43" s="3" t="s">
         <v>10</v>
@@ -3535,13 +3721,19 @@
       <c r="AE43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -3553,58 +3745,58 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
       </c>
       <c r="X44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="3">
         <v>100</v>
@@ -3613,10 +3805,10 @@
         <v>100</v>
       </c>
       <c r="AB44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD44" s="3">
         <v>200</v>
@@ -3624,13 +3816,19 @@
       <c r="AE44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>200</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3641,11 +3839,11 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>10</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>10</v>
@@ -3653,14 +3851,14 @@
       <c r="K45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>10</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>10</v>
@@ -3674,11 +3872,11 @@
       <c r="R45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3713,105 +3911,117 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
       </c>
       <c r="G46" s="3">
+        <v>400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>400</v>
+      </c>
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1000</v>
       </c>
       <c r="N46" s="3">
         <v>1000</v>
       </c>
       <c r="O46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>900</v>
-      </c>
-      <c r="T46" s="3">
-        <v>800</v>
       </c>
       <c r="U46" s="3">
         <v>900</v>
       </c>
       <c r="V46" s="3">
+        <v>800</v>
+      </c>
+      <c r="W46" s="3">
+        <v>900</v>
+      </c>
+      <c r="X46" s="3">
         <v>700</v>
-      </c>
-      <c r="W46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="X46" s="3">
-        <v>1000</v>
       </c>
       <c r="Y46" s="3">
         <v>1000</v>
       </c>
       <c r="Z46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB46" s="3">
         <v>900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AF46" s="3">
         <v>600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AG46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>1100</v>
@@ -3820,17 +4030,17 @@
         <v>1100</v>
       </c>
       <c r="H47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J47" s="3">
         <v>1300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>10</v>
       </c>
@@ -3843,11 +4053,11 @@
       <c r="O47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3891,8 +4101,14 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3900,37 +4116,37 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
         <v>400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
       </c>
       <c r="L48" s="3">
+        <v>700</v>
+      </c>
+      <c r="M48" s="3">
         <v>400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>500</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
       </c>
       <c r="O48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P48" s="3">
         <v>400</v>
@@ -3942,10 +4158,10 @@
         <v>400</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3980,8 +4196,14 @@
       <c r="AE48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AG48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4048,17 +4270,17 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>0</v>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AC49" s="3">
         <v>0</v>
@@ -4069,8 +4291,14 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4386,14 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4481,14 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4576,14 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,73 +4671,79 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>800</v>
-      </c>
-      <c r="W54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="X54" s="3">
-        <v>1100</v>
       </c>
       <c r="Y54" s="3">
         <v>1100</v>
@@ -4500,22 +4752,28 @@
         <v>1100</v>
       </c>
       <c r="AA54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC54" s="3">
         <v>900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AF54" s="3">
         <v>700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AG54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4805,10 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4840,10 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4589,22 +4851,22 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -4613,34 +4875,34 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
@@ -4655,22 +4917,28 @@
         <v>300</v>
       </c>
       <c r="AA57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AC57" s="3">
         <v>200</v>
       </c>
       <c r="AD57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AE57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AG57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4680,20 +4948,20 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4758,194 +5026,212 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1700</v>
       </c>
       <c r="K59" s="3">
         <v>1500</v>
       </c>
       <c r="L59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1300</v>
-      </c>
-      <c r="X59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>1100</v>
       </c>
       <c r="Z59" s="3">
         <v>1200</v>
       </c>
       <c r="AA59" s="3">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="AB59" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="AC59" s="3">
         <v>1700</v>
       </c>
       <c r="AD59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AF59" s="3">
         <v>1500</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AG59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>900</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1600</v>
-      </c>
-      <c r="X60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>1500</v>
       </c>
       <c r="Z60" s="3">
         <v>1500</v>
       </c>
       <c r="AA60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC60" s="3">
         <v>1200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>1800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AF60" s="3">
         <v>1600</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AG60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -4957,7 +5243,7 @@
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -4966,22 +5252,22 @@
         <v>300</v>
       </c>
       <c r="L61" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
       </c>
       <c r="N61" s="3">
+        <v>400</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>100</v>
-      </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -5025,13 +5311,19 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -5046,10 +5338,10 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
@@ -5064,10 +5356,10 @@
         <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q62" s="3">
         <v>300</v>
@@ -5075,11 +5367,11 @@
       <c r="R62" s="3">
         <v>300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>10</v>
+      <c r="S62" s="3">
+        <v>300</v>
+      </c>
+      <c r="T62" s="3">
+        <v>300</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>10</v>
@@ -5093,11 +5385,11 @@
       <c r="X62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -5114,8 +5406,14 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5501,14 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5596,14 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5691,109 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
-      </c>
-      <c r="X66" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1500</v>
       </c>
       <c r="Z66" s="3">
         <v>1500</v>
       </c>
       <c r="AA66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC66" s="3">
         <v>1200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>1800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>1600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AG66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5825,10 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5916,14 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +6011,14 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +6106,14 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,58 +6201,64 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-25900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-25600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-25300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-25200</v>
       </c>
       <c r="H72" s="3">
         <v>-25300</v>
       </c>
       <c r="I72" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-24700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-24300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-24600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-24200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-24100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-23900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-24000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-24600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-24100</v>
       </c>
       <c r="T72" s="3">
         <v>-24100</v>
@@ -5919,37 +6267,43 @@
         <v>-24100</v>
       </c>
       <c r="V72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="W72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="X72" s="3">
         <v>-23600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-23400</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-23200</v>
       </c>
       <c r="Z72" s="3">
         <v>-23300</v>
       </c>
       <c r="AA72" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-23100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-23500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-23400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AF72" s="3">
         <v>-23100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AG72" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6391,14 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6486,14 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,58 +6581,64 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F76" s="3">
         <v>500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>400</v>
       </c>
       <c r="J76" s="3">
         <v>700</v>
       </c>
       <c r="K76" s="3">
+        <v>400</v>
+      </c>
+      <c r="L76" s="3">
+        <v>700</v>
+      </c>
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-800</v>
       </c>
       <c r="T76" s="3">
         <v>-800</v>
@@ -6278,34 +6650,40 @@
         <v>-800</v>
       </c>
       <c r="W76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-500</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-400</v>
       </c>
       <c r="Z76" s="3">
         <v>-400</v>
       </c>
       <c r="AA76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-300</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="AC76" s="3">
-        <v>-1200</v>
       </c>
       <c r="AD76" s="3">
         <v>-900</v>
       </c>
       <c r="AE76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AF76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AG76" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,167 +6771,179 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AG80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
@@ -6562,22 +6952,28 @@
         <v>-100</v>
       </c>
       <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AF81" s="3">
         <v>-200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AG81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,25 +7005,27 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -6698,8 +7096,14 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +7191,14 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7286,14 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7381,14 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7476,14 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7571,109 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
-        <v>100</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>300</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AF89" s="3">
         <v>-200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AG89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7705,10 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7286,49 +7728,49 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>10</v>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>10</v>
@@ -7339,23 +7781,29 @@
       <c r="Z91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-100</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7891,14 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,13 +7986,19 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -7553,76 +8013,82 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>10</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-      <c r="AD94" s="3" t="s">
-        <v>10</v>
+      <c r="AD94" s="3">
+        <v>0</v>
       </c>
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +8120,10 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +8211,14 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8306,14 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8401,14 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8496,14 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8034,26 +8526,26 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>10</v>
       </c>
@@ -8066,11 +8558,11 @@
       <c r="T100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -8099,8 +8591,14 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8686,105 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AF102" s="3">
         <v>-200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AG102" s="3">
         <v>-100</v>
       </c>
     </row>
